--- a/downloaded_files/MCNS101_Lecture-35461.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35461.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,6 +109,15 @@
   </x:si>
   <x:si>
     <x:t>Shahd Nagi Sayed Rashad Sawi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله نيكسون مصطفى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Nekson Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>2240008</x:t>
@@ -332,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -642,7 +651,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.750625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.010625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1009,7 +1018,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4183939005</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.0360419329</x:v>
+        <x:v>45908.4183939005</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45912.0360419329</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45909.4381423611</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45908.4997965278</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1378,6 +1387,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Lecture-35461.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35461.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -57,6 +57,15 @@
     <x:t>احمد محمد عزت عطية</x:t>
   </x:si>
   <x:si>
+    <x:t>4250164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250165</x:t>
   </x:si>
   <x:si>
@@ -109,6 +118,15 @@
   </x:si>
   <x:si>
     <x:t>Shahd Nagi Sayed Rashad Sawi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله اشرف رأفت حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Raafat Hassanein</x:t>
   </x:si>
   <x:si>
     <x:t>2250002</x:t>
@@ -341,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -650,7 +668,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.750625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.010625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.650625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -826,7 +844,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45919.4327795949</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -858,7 +876,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6668241088</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -890,7 +908,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45907.6668241088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -922,7 +940,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -954,7 +972,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -986,7 +1004,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1018,7 +1036,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1050,7 +1068,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1082,7 +1100,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1114,7 +1132,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1146,7 +1164,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1178,7 +1196,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1210,7 +1228,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1242,7 +1260,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4183939005</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1274,7 +1292,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.0360419329</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1306,7 +1324,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45908.4183939005</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1338,7 +1356,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45912.0360419329</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1370,7 +1388,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45909.4381423611</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1402,7 +1420,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1419,6 +1437,70 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45908.4997965278</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Lecture-35461.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35461.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -111,6 +111,15 @@
     <x:t>ٍSalma Hany Mohamed Azez</x:t>
   </x:si>
   <x:si>
+    <x:t>4250177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>شابى اشرف محمد كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shaby Ashraf Mohamed Kamel</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240323</x:t>
   </x:si>
   <x:si>
@@ -147,6 +156,15 @@
     <x:t>Ali eldin</x:t>
   </x:si>
   <x:si>
+    <x:t>4250181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على عبدالرحمن محمد ابراهيم حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdul Rahman Mohamed Ibrahim Hamza</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250182</x:t>
   </x:si>
   <x:si>
@@ -156,6 +174,15 @@
     <x:t>Ali Mohamed Ali</x:t>
   </x:si>
   <x:si>
+    <x:t>4250163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر مصطفى حسني محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mostafa Hosni</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240258</x:t>
   </x:si>
   <x:si>
@@ -210,6 +237,15 @@
     <x:t>Nour eldeen Mostafa Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ابراهيم سعيد عيد حسانين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230329</x:t>
   </x:si>
   <x:si>
@@ -217,6 +253,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حسن سيد احمد حسن السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hassan Sayed Ahmed Hassan El-Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>4250202</x:t>
@@ -359,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1036,7 +1081,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1068,7 +1113,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1100,7 +1145,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1132,7 +1177,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1164,7 +1209,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1196,7 +1241,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1228,7 +1273,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1260,7 +1305,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45919.9902133912</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1292,7 +1337,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1324,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4183939005</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1356,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.0360419329</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1388,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1420,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45908.4183939005</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1452,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45912.0360419329</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1484,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1501,6 +1546,166 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45909.4381423611</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45919.9825459491</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45917.311553206</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45908.4997965278</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Lecture-35461.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35461.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -244,6 +244,15 @@
   </x:si>
   <x:si>
     <x:t>Yuossef Ibrahem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230329</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1561,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45919.9825459491</x:v>
+        <x:v>45909.4381423611</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45908.4997965278</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Lecture-35461.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35461.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -54,7 +54,10 @@
     <x:t>1220303</x:t>
   </x:si>
   <x:si>
-    <x:t>احمد محمد عزت عطية</x:t>
+    <x:t>احمد محمد عزت عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ezzat Attia</x:t>
   </x:si>
   <x:si>
     <x:t>4250164</x:t>
@@ -864,7 +867,9 @@
       <x:c r="C4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E4" s="3">
         <x:v>45912.0360022338</x:v>
       </x:c>
@@ -889,13 +894,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
         <x:v>45919.4327795949</x:v>
@@ -921,13 +926,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>45917.3081947569</x:v>
@@ -953,13 +958,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
         <x:v>45907.6668241088</x:v>
@@ -985,13 +990,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:v>45917.3133189005</x:v>
@@ -1017,13 +1022,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45907.665562419</x:v>
@@ -1049,13 +1054,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45908.4174532407</x:v>
@@ -1081,13 +1086,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45919.9609886227</x:v>
@@ -1113,13 +1118,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45908.4153371875</x:v>
@@ -1145,13 +1150,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45919.4339732639</x:v>
@@ -1177,13 +1182,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45918.8002249653</x:v>
@@ -1209,13 +1214,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45908.4607696759</x:v>
@@ -1241,13 +1246,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45919.9783004977</x:v>
@@ -1273,13 +1278,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45917.3102704514</x:v>
@@ -1305,13 +1310,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45919.9902133912</x:v>
@@ -1337,13 +1342,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45908.4150680903</x:v>
@@ -1369,13 +1374,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45907.6652585301</x:v>
@@ -1401,13 +1406,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45917.3417125</x:v>
@@ -1433,13 +1438,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45909.492018669</x:v>
@@ -1465,13 +1470,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45908.4183939005</x:v>
@@ -1497,13 +1502,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45912.0360419329</x:v>
@@ -1529,13 +1534,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45919.9698933218</x:v>
@@ -1561,13 +1566,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45921.9223017014</x:v>
@@ -1593,13 +1598,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45909.4381423611</x:v>
@@ -1625,13 +1630,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45919.9825459491</x:v>
@@ -1657,13 +1662,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45917.311553206</x:v>
@@ -1689,13 +1694,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45908.4997965278</x:v>
@@ -1721,13 +1726,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45907.6687487269</x:v>

--- a/downloaded_files/MCNS101_Lecture-35461.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35461.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>4250165</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -725,7 +734,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.750625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.650625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -935,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45925.3110492245</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6668241088</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45907.6668241088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45919.9902133912</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45919.9902133912</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4183939005</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.0360419329</x:v>
+        <x:v>45908.4183939005</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45912.0360419329</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45919.9825459491</x:v>
+        <x:v>45909.4381423611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45908.4997965278</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Lecture-35461.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35461.xlsx
@@ -69,15 +69,6 @@
     <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود محمد محمد خليفة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
-  </x:si>
-  <x:si>
     <x:t>4250165</x:t>
   </x:si>
   <x:si>
@@ -184,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Mohamed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد عبدالمعبود محمد قدرة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar ahmed abdelmaaboud mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>4250163</x:t>
@@ -734,7 +734,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.750625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.650625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -944,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45925.3110492245</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -976,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45907.6668241088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1008,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6668241088</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1040,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45927.4921977662</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/MCNS101_Lecture-35461.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35461.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,15 +265,6 @@
   </x:si>
   <x:si>
     <x:t>Yuossef Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
   <x:si>
     <x:t>4250201</x:t>
@@ -425,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1648,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4381423611</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45919.9825459491</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45908.4997965278</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45907.6687487269</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1761,38 +1752,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.6687487269</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Lecture-35461.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35461.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>4250165</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -725,7 +734,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.750625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.650625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -935,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.3081947569</x:v>
+        <x:v>45928.7044315972</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6668241088</x:v>
+        <x:v>45917.3081947569</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45917.3133189005</x:v>
+        <x:v>45907.6668241088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45917.3133189005</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4174532407</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45919.9609886227</x:v>
+        <x:v>45908.4174532407</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4153371875</x:v>
+        <x:v>45919.9609886227</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45919.4339732639</x:v>
+        <x:v>45908.4153371875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45919.4339732639</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45919.9783004977</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45917.3102704514</x:v>
+        <x:v>45919.9783004977</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4921977662</x:v>
+        <x:v>45917.3102704514</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45919.9902133912</x:v>
+        <x:v>45927.4921977662</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4150680903</x:v>
+        <x:v>45919.9902133912</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45908.4150680903</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.3417125</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.492018669</x:v>
+        <x:v>45917.3417125</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4183939005</x:v>
+        <x:v>45909.492018669</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.0360419329</x:v>
+        <x:v>45908.4183939005</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45919.9698933218</x:v>
+        <x:v>45912.0360419329</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.9223017014</x:v>
+        <x:v>45919.9698933218</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45919.9825459491</x:v>
+        <x:v>45921.9223017014</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45917.311553206</x:v>
+        <x:v>45919.9825459491</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4997965278</x:v>
+        <x:v>45917.311553206</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6687487269</x:v>
+        <x:v>45908.4997965278</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6687487269</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS101_Lecture-35461.xlsx
+++ b/downloaded_files/MCNS101_Lecture-35461.xlsx
@@ -1799,11 +1799,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [18202]18202-60-الجيزة الرئيسي Time : Sunday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [0]17101-0-الجيزة الرئيسي Time : Sunday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [18202]18202-60-الجيزة الرئيسي Time : Sunday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [0]17101-0-الجيزة الرئيسي Time : Sunday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [18202]18202-60-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Thermodynamics (MCNS101) Location : [0]17101-0-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
